--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225613.6650051594</v>
+        <v>-228314.8816566161</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>225.403139763615</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>148.6865099692909</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.70339495267508</v>
       </c>
       <c r="D3" t="n">
-        <v>128.9862562988978</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.99158089725994</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>34.43474728957509</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>175.7350147789735</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>153.3864134533794</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154304</v>
+        <v>383.6877278154319</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>74.81930836737868</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>20.31935404564877</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>36.27346476951726</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713749</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.64712610714417</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>39.36345547442908</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.7407466409439</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>17.05205808275949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116.7227525737064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>43.37670322929109</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>31.263042441678</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>331.746695733383</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>129.0053079942206</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>39.90118684021476</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784702</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>41.02686156550207</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>124.88083207712</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>36.43062059490455</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>140.9144183062128</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>13.3764255468635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>108.0660982347027</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758682</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>39.56681219551418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>33.45472478221009</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>81.11398998229645</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.6453074544261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.65115569188721</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788180448</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.15381658332807</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>241.6877826129299</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>47.16611136584675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>78.14939830226078</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670952</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163965</v>
+        <v>515.1547061224652</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>690.2330699327779</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.1078750723513</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="C3" t="n">
-        <v>411.1078750723513</v>
+        <v>620.6531535174327</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956868</v>
+        <v>471.7187438561813</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902313</v>
+        <v>312.4812888507258</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902313</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902313</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428381</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="W3" t="n">
-        <v>826.7196740428381</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="X3" t="n">
-        <v>618.8681738373052</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.1078750723513</v>
+        <v>659.7474918534681</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.2322417093549</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="C4" t="n">
-        <v>128.2322417093549</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>128.2322417093549</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>128.2322417093549</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>128.2322417093549</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>128.2322417093549</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1020.072946986252</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745502</v>
+        <v>794.6039107442663</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073722</v>
+        <v>794.6039107442663</v>
       </c>
       <c r="V4" t="n">
-        <v>356.2217926073722</v>
+        <v>539.9194225383794</v>
       </c>
       <c r="W4" t="n">
-        <v>356.2217926073722</v>
+        <v>539.9194225383794</v>
       </c>
       <c r="X4" t="n">
-        <v>128.2322417093549</v>
+        <v>539.9194225383794</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.2322417093549</v>
+        <v>319.1268433948493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7674266983976</v>
+        <v>50.18495430551876</v>
       </c>
       <c r="C5" t="n">
-        <v>540.7674266983976</v>
+        <v>50.18495430551876</v>
       </c>
       <c r="D5" t="n">
-        <v>363.2573107600405</v>
+        <v>50.18495430551876</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2573107600405</v>
+        <v>50.18495430551876</v>
       </c>
       <c r="F5" t="n">
-        <v>356.311810010837</v>
+        <v>43.23945355631528</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797562</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275169</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245554</v>
+        <v>239.0325989245567</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825622</v>
+        <v>456.1499114825642</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748847</v>
+        <v>729.4041931748875</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261722</v>
+        <v>1177.398442107331</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398239</v>
+        <v>923.7469742438484</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398239</v>
+        <v>592.6840869002777</v>
       </c>
       <c r="W5" t="n">
-        <v>928.3307881281253</v>
+        <v>437.748315735248</v>
       </c>
       <c r="X5" t="n">
-        <v>928.3307881281253</v>
+        <v>437.748315735248</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.7674266983976</v>
+        <v>50.18495430551876</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519.8670245911082</v>
+        <v>833.1057215924993</v>
       </c>
       <c r="C6" t="n">
-        <v>345.4139953099813</v>
+        <v>757.5306626355512</v>
       </c>
       <c r="D6" t="n">
-        <v>345.4139953099813</v>
+        <v>608.5962529742999</v>
       </c>
       <c r="E6" t="n">
-        <v>186.1765403045258</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
         <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563406</v>
+        <v>49.44206107563443</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169442</v>
+        <v>159.6385680169451</v>
       </c>
       <c r="L6" t="n">
-        <v>470.8564223764389</v>
+        <v>354.1339118482974</v>
       </c>
       <c r="M6" t="n">
-        <v>717.1801830471845</v>
+        <v>717.1801830471875</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584461</v>
+        <v>1097.031033584465</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749979</v>
+        <v>1319.294480749984</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948667</v>
+        <v>1478.347425948672</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261722</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.750911261722</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="T6" t="n">
-        <v>1338.846268813406</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="U6" t="n">
-        <v>1338.846268813406</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="V6" t="n">
-        <v>1103.694160581663</v>
+        <v>1295.194578526234</v>
       </c>
       <c r="W6" t="n">
-        <v>1103.694160581663</v>
+        <v>1040.957221798032</v>
       </c>
       <c r="X6" t="n">
-        <v>895.8426603761302</v>
+        <v>833.1057215924993</v>
       </c>
       <c r="Y6" t="n">
-        <v>688.0823616111763</v>
+        <v>833.1057215924993</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.6081118076276</v>
+        <v>241.3167482107905</v>
       </c>
       <c r="C7" t="n">
-        <v>178.6081118076276</v>
+        <v>72.38056528288359</v>
       </c>
       <c r="D7" t="n">
-        <v>178.6081118076276</v>
+        <v>72.38056528288359</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523443</v>
+        <v>72.38056528288359</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709664</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709664</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709664</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709664</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388148</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974819</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.535278371728</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="U7" t="n">
-        <v>720.3954075480992</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="V7" t="n">
-        <v>465.7109193422124</v>
+        <v>979.5160482892985</v>
       </c>
       <c r="W7" t="n">
-        <v>465.7109193422124</v>
+        <v>690.098878252338</v>
       </c>
       <c r="X7" t="n">
-        <v>465.7109193422124</v>
+        <v>462.1093273543206</v>
       </c>
       <c r="Y7" t="n">
-        <v>244.9183401986823</v>
+        <v>241.3167482107905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1134.226501951989</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>765.263985011577</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>765.263985011577</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>379.4757324133328</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>372.5302316641293</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.84766053555</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.84766053555</v>
+        <v>1134.226501951989</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908465</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.8918298888575</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888575</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765217</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1592.631268327739</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1396.0025204876</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1396.0025204876</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1396.0025204876</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>1396.0025204876</v>
       </c>
       <c r="W10" t="n">
-        <v>1158.783151063346</v>
+        <v>1106.585350450639</v>
       </c>
       <c r="X10" t="n">
-        <v>930.7936001653286</v>
+        <v>878.5957995526222</v>
       </c>
       <c r="Y10" t="n">
-        <v>930.7936001653286</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.468935552208</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.506418611796</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>705.5419074035549</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592074</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345378</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466906</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.442521123336</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.673865853221</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592141</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.06877561633</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5115,31 +5115,31 @@
         <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>272.7431585655876</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>691.4401992235393</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1199.396765180068</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1735.206074881278</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2203.147119213801</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>814.5429355999233</v>
+        <v>264.731842545361</v>
       </c>
       <c r="C13" t="n">
-        <v>684.2345436865692</v>
+        <v>264.7318425453609</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>264.7318425453609</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344811</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1949.247121276105</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1728.355788710545</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1439.264095659996</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636884</v>
+        <v>1184.579607454109</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999233</v>
+        <v>895.1624374171481</v>
       </c>
       <c r="X13" t="n">
-        <v>814.5429355999233</v>
+        <v>667.1728865191308</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.5429355999233</v>
+        <v>446.3803073756006</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,10 +5318,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536385</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257316</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133959</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310028</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330924</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1851.318825887155</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625426</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>726.9555321712444</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>558.0193492433375</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310017</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310017</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941681</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.487785285879</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1646.803297079992</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1129.396576145014</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>908.6039970014841</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782969</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038355</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>430.7826650753326</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929395</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950293</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614381</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317908</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.9555321712451</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433382</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310024</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2413.170432285098</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2413.170432285098</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1904.493740652237</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1649.80925244635</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014848</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206042</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876686</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511391</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614383</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179083</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>449.4852666057158</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>134.3760737382023</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233311</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954242</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830885</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830885</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.472830395118</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535708</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622252</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888039</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,10 +7573,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.4026036630038</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C46" t="n">
-        <v>776.466420735097</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>776.466420735097</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>628.5533271527039</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>481.6633796547936</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>314.4672803696735</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>172.7554492118716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630038</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594113</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637022</v>
+        <v>34.43939438636988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>117.9015257860029</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>117.9015257860038</v>
       </c>
       <c r="N6" t="n">
-        <v>113.7363514798525</v>
+        <v>113.7363514798533</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589403</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>168.7434581780642</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>323.4199991790049</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>78.72291117988296</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>38.2415131044072</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>106.5327758063544</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>127.256811246708</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>273.1465727897275</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>117.6435571543344</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.782806954682</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>32.9205219279116</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>144.5956654067407</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.93934589766872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>144.5956654067406</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194124</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>100.1408962628958</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.83521572366109</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.26785128072243</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.116438016304758</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1118975.734048943</v>
+        <v>1118975.734048944</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1118975.734048944</v>
+        <v>1118975.734048943</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837524</v>
@@ -26353,7 +26353,7 @@
         <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657062</v>
+        <v>132804.219065708</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929384</v>
+        <v>265413.072392937</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545774</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.429264174</v>
+        <v>30877.42926417444</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049587</v>
+        <v>65018.34502049549</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230446</v>
+        <v>213528.7967230442</v>
       </c>
       <c r="D4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="E4" t="n">
         <v>9841.725762122358</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768847</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768901</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768918</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768908</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768919</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667488</v>
+        <v>72593.650386675</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684683.0864270577</v>
+        <v>-684683.0864270576</v>
       </c>
       <c r="C6" t="n">
-        <v>-111036.0024763196</v>
+        <v>-111036.0024763211</v>
       </c>
       <c r="D6" t="n">
-        <v>-188390.5915408988</v>
+        <v>-188390.5915408972</v>
       </c>
       <c r="E6" t="n">
-        <v>-133835.4015811867</v>
+        <v>-134056.5328951616</v>
       </c>
       <c r="F6" t="n">
-        <v>2302.031967647112</v>
+        <v>2267.294042211986</v>
       </c>
       <c r="G6" t="n">
-        <v>191610.3007380764</v>
+        <v>191575.5628126406</v>
       </c>
       <c r="H6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126405</v>
       </c>
       <c r="I6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="J6" t="n">
-        <v>122611.1463189622</v>
+        <v>122576.4083935265</v>
       </c>
       <c r="K6" t="n">
-        <v>160732.8714739024</v>
+        <v>160698.1335484662</v>
       </c>
       <c r="L6" t="n">
-        <v>126591.9557175803</v>
+        <v>126557.2177921452</v>
       </c>
       <c r="M6" t="n">
-        <v>109712.8970253455</v>
+        <v>109678.1590999097</v>
       </c>
       <c r="N6" t="n">
-        <v>141770.7266060527</v>
+        <v>141735.9886806171</v>
       </c>
       <c r="O6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126406</v>
       </c>
       <c r="P6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126406</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695743</v>
+        <v>717.3319511695755</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154304</v>
+        <v>383.6877278154319</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490095</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000959</v>
+        <v>103.2769374000973</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479639</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.1763450974112</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139257</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139257</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139257</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>50.47975262776179</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>200.5544587481221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>134.0051040356407</v>
       </c>
       <c r="D3" t="n">
-        <v>18.45880926574091</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>61.39057843859685</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>170.2844169540187</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>178.9480268417094</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863699</v>
+        <v>99.30025118863681</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>195.8545552640336</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623208</v>
+        <v>2.550210840621673</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>97.88919062093706</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>124.7498583477351</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713905</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.1848540747931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.0575925485022</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643621</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.99309502253669</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>394.4956446901945</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.10922760823092</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>58.18086919028251</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.595703625831419e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88374653736512</v>
+        <v>2.883746537365126</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.5331692257906</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023587</v>
+        <v>366.8233736023594</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791136</v>
+        <v>506.3606591791145</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284032</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974778</v>
+        <v>485.8788493974787</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562763</v>
+        <v>414.6863567562771</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020787</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189772</v>
+        <v>53.12316808189782</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453794</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438658</v>
+        <v>335.0143230438664</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874179</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189112</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348669</v>
+        <v>367.1047769348676</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392923</v>
+        <v>95.79765189392938</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989042</v>
+        <v>6.219132670989054</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.9005589257206</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402915</v>
+        <v>91.45394400402931</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565103</v>
+        <v>58.16268574565113</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060652</v>
+        <v>5.526983886060662</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864672</v>
+        <v>0.07055724109864685</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>335.0187042770527</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>210.2405368417296</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038099</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609053</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900682</v>
+        <v>63.70847814900725</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573782</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252594</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518408</v>
+        <v>276.0144259518418</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318123</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757911</v>
+        <v>255.780637975792</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010068</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243839</v>
+        <v>89.10649401243896</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959558</v>
+        <v>18.93640691959584</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710204</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>314.3614690499946</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653996</v>
+        <v>366.7134052514041</v>
       </c>
       <c r="N6" t="n">
-        <v>383.6877278154304</v>
+        <v>383.6877278154319</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904225</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047351</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793408</v>
+        <v>56.97321748793442</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491133</v>
+        <v>22.15508137491152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681148</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35267,13 +35267,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>197.1772653026937</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>67.64429239728516</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>556.7168329578466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295458</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204766</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
